--- a/__repository/template/temp_mastercr.xlsx
+++ b/__repository/template/temp_mastercr.xlsx
@@ -99,6 +99,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,16 +237,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -259,6 +256,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -542,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B6" sqref="B6:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,12 +558,13 @@
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -571,26 +577,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -599,13 +605,13 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -632,7 +638,7 @@
       <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -641,20 +647,51 @@
       <c r="R5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E2"/>

--- a/__repository/template/temp_mastercr.xlsx
+++ b/__repository/template/temp_mastercr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -38,15 +38,6 @@
     <t>CR Status</t>
   </si>
   <si>
-    <t>phasecode</t>
-  </si>
-  <si>
-    <t>phasename</t>
-  </si>
-  <si>
-    <t>phaseyear</t>
-  </si>
-  <si>
     <t>NODIN</t>
   </si>
   <si>
@@ -74,35 +65,75 @@
     <t>Value Delta</t>
   </si>
   <si>
-    <t>crtype</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>updateby</t>
-  </si>
-  <si>
-    <t>updateat</t>
-  </si>
-  <si>
-    <t>filename</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>TEMPLATE UPLOAD MASTER CR</t>
+  </si>
+  <si>
+    <t>please ignore blank</t>
+  </si>
+  <si>
+    <t>check master phase</t>
+  </si>
+  <si>
+    <t>free text</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>auto calculate</t>
+  </si>
+  <si>
+    <t>Phase Code</t>
+  </si>
+  <si>
+    <t>Phase Year</t>
+  </si>
+  <si>
+    <t>Phase Name</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Update By</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>POIN v2</t>
+  </si>
+  <si>
+    <t>CR Type</t>
+  </si>
+  <si>
+    <t>CR Currency</t>
+  </si>
+  <si>
+    <t>Value Add</t>
+  </si>
+  <si>
+    <t>Value Red</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +182,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -171,12 +218,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -187,8 +228,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,77 +244,76 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="0"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -547,155 +593,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>42705</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="I5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="K5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="N5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="Q5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="R5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>